--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Documents\thesis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ED8410-0A67-4F2F-B375-0D361E24CB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EA1A9D-1E8B-455A-95F5-40CACAD7A2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{50E86AA2-15B8-491F-94DD-E12E6B3C2D4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{50E86AA2-15B8-491F-94DD-E12E6B3C2D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="challenge-newbies-2018" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="259">
   <si>
     <t>ZeroR</t>
   </si>
@@ -819,28 +819,25 @@
     <t>0, 5, 6, 9</t>
   </si>
   <si>
-    <t>Content, problem, content (after problem)</t>
-  </si>
-  <si>
-    <t>Content, content, content, content</t>
-  </si>
-  <si>
-    <t>Problem, content, content, content (missed 2nd and 3rd problem)</t>
-  </si>
-  <si>
-    <t>Content, problem (missed 2nd and 3rd problem)</t>
-  </si>
-  <si>
-    <t>Content, content, content (missed all problems)</t>
-  </si>
-  <si>
-    <t>Content, content, problem (missed 3 problems)</t>
-  </si>
-  <si>
     <t>Problem, problem, content</t>
   </si>
   <si>
     <t>BFS</t>
+  </si>
+  <si>
+    <t>Content, problem, problem (missed first problem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem, problem, content, problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content, problem, problem  </t>
+  </si>
+  <si>
+    <t>Content, problem, problem</t>
+  </si>
+  <si>
+    <t>Content, problem, problem, content</t>
   </si>
 </sst>
 </file>
@@ -922,15 +919,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1247,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CD0B7D-80A5-4698-906C-8BC5743927FD}">
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52:M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,13 +1266,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1615,13 +1612,13 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="I11" s="5">
         <v>9</v>
       </c>
@@ -1629,7 +1626,7 @@
         <v>85.16</v>
       </c>
       <c r="K11" s="9">
-        <v>0.78</v>
+        <v>78</v>
       </c>
       <c r="L11" s="9">
         <v>0</v>
@@ -1716,7 +1713,7 @@
       </c>
       <c r="K13" s="6">
         <f t="shared" si="0"/>
-        <v>74.277000000000001</v>
+        <v>81.998999999999995</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="0"/>
@@ -1769,7 +1766,7 @@
         <v>79.599999999999994</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>4</v>
@@ -1966,13 +1963,13 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="I21" s="5">
         <v>6</v>
       </c>
@@ -2103,7 +2100,7 @@
         <v>85.16</v>
       </c>
       <c r="K24" s="9">
-        <v>0.78</v>
+        <v>78</v>
       </c>
       <c r="L24" s="9">
         <v>0</v>
@@ -2181,7 +2178,7 @@
       </c>
       <c r="K26" s="6">
         <f t="shared" si="1"/>
-        <v>74.378999999999991</v>
+        <v>82.100999999999985</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="1"/>
@@ -2317,13 +2314,13 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
       <c r="I31" s="5">
         <v>3</v>
       </c>
@@ -2485,7 +2482,7 @@
       <c r="E35">
         <v>86.35</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="5">
         <v>7</v>
       </c>
@@ -2507,9 +2504,9 @@
       <c r="O35" s="2">
         <v>7</v>
       </c>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2527,7 +2524,7 @@
       <c r="E36">
         <v>20</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="5">
         <v>8</v>
       </c>
@@ -2549,9 +2546,9 @@
       <c r="O36">
         <v>4</v>
       </c>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2569,7 +2566,7 @@
       <c r="E37">
         <v>85.6</v>
       </c>
-      <c r="H37" s="13"/>
+      <c r="H37" s="12"/>
       <c r="I37" s="5">
         <v>9</v>
       </c>
@@ -2591,9 +2588,9 @@
       <c r="O37">
         <v>4</v>
       </c>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -2611,7 +2608,7 @@
       <c r="E38">
         <v>5</v>
       </c>
-      <c r="H38" s="13"/>
+      <c r="H38" s="12"/>
       <c r="I38" s="5">
         <v>10</v>
       </c>
@@ -2633,9 +2630,9 @@
       <c r="O38">
         <v>7</v>
       </c>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -2653,7 +2650,7 @@
       <c r="E39">
         <v>7</v>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="12"/>
       <c r="I39" s="6" t="s">
         <v>151</v>
       </c>
@@ -2681,44 +2678,44 @@
         <f t="shared" si="2"/>
         <v>5.9</v>
       </c>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H40" s="13"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
@@ -2739,18 +2736,18 @@
       <c r="G42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -2774,18 +2771,18 @@
       <c r="G43" t="s">
         <v>58</v>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -2803,18 +2800,18 @@
       <c r="E44">
         <v>86.05</v>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -2832,18 +2829,18 @@
       <c r="E45">
         <v>83.19</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -2861,18 +2858,18 @@
       <c r="E46">
         <v>0</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -2890,18 +2887,18 @@
       <c r="E47">
         <v>93.57</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -2919,18 +2916,18 @@
       <c r="E48">
         <v>3</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -2948,41 +2945,41 @@
       <c r="E49">
         <v>4</v>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -3006,13 +3003,13 @@
       <c r="I52" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K52" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="L52" s="11"/>
+      <c r="K52" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="L52" s="10"/>
       <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -3044,7 +3041,7 @@
         <v>248</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -3072,7 +3069,7 @@
         <v>249</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -3100,7 +3097,7 @@
         <v>250</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -3128,7 +3125,7 @@
         <v>57</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
@@ -3156,7 +3153,7 @@
         <v>61</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
@@ -3225,19 +3222,19 @@
         <v>251</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
       <c r="I61" s="6" t="s">
         <v>218</v>
       </c>
@@ -3245,7 +3242,7 @@
         <v>68</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -3393,13 +3390,13 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
@@ -3547,13 +3544,13 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
@@ -3701,13 +3698,13 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
@@ -3876,8 +3873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7079EB62-FD8D-4782-99A6-24C1CF6C3326}">
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39:M39"/>
+    <sheetView topLeftCell="F22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O51" sqref="K42:O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3898,13 +3895,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -4227,13 +4224,13 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="K11" s="5">
         <v>8</v>
       </c>
@@ -4579,13 +4576,13 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="K21" s="5">
         <v>5</v>
       </c>
@@ -4930,13 +4927,13 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
       <c r="K31" s="5">
         <v>2</v>
       </c>
@@ -5302,13 +5299,13 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
@@ -5332,13 +5329,13 @@
       <c r="K42" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="N42" s="11"/>
+      <c r="N42" s="10"/>
       <c r="O42" s="5"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -5557,13 +5554,13 @@
       <c r="O50" s="5"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
       <c r="K51" s="6" t="s">
         <v>218</v>
       </c>
@@ -5722,13 +5719,13 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
@@ -5876,13 +5873,13 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
@@ -6030,13 +6027,13 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
@@ -6184,13 +6181,13 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
@@ -6359,7 +6356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3408A6-E773-48CF-BFE0-DB7632AEEFBC}">
   <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="I25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L41" sqref="L41:P50"/>
     </sheetView>
   </sheetViews>
@@ -6381,13 +6378,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -6727,13 +6724,13 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="L11" s="5">
         <v>9</v>
       </c>
@@ -7078,13 +7075,13 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="L21" s="5">
         <v>6</v>
       </c>
@@ -7429,13 +7426,13 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
       <c r="L31" s="5">
         <v>3</v>
       </c>
@@ -7778,23 +7775,23 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
       <c r="L41" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="M41" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="N41" s="11" t="s">
+      <c r="N41" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="O41" s="11"/>
+      <c r="O41" s="10"/>
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -7993,7 +7990,7 @@
       <c r="L48" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="M48" s="12">
+      <c r="M48" s="11">
         <v>5</v>
       </c>
       <c r="N48" s="5" t="s">
@@ -8021,7 +8018,7 @@
       <c r="L49" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="M49" s="12" t="s">
+      <c r="M49" s="11" t="s">
         <v>115</v>
       </c>
       <c r="N49" s="5" t="s">
@@ -8034,7 +8031,7 @@
       <c r="L50" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M50" s="11">
         <v>8</v>
       </c>
       <c r="N50" s="5" t="s">
@@ -8044,13 +8041,13 @@
       <c r="P50" s="5"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -8198,13 +8195,13 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
@@ -8352,13 +8349,13 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
@@ -8506,13 +8503,13 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
@@ -8660,13 +8657,13 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
@@ -8835,8 +8832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD46F52-BCA9-48C0-AE8C-5F68A7747020}">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L51" sqref="H42:L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8856,13 +8853,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -9203,13 +9200,13 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="H11" s="5">
         <v>9</v>
       </c>
@@ -9555,13 +9552,13 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
       <c r="H21" s="5">
         <v>6</v>
       </c>
@@ -9906,13 +9903,13 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
       <c r="H31" s="5">
         <v>3</v>
       </c>
@@ -10253,13 +10250,13 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
@@ -10283,13 +10280,13 @@
       <c r="H42" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="K42" s="11"/>
+      <c r="K42" s="10"/>
       <c r="L42" s="5"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -10506,7 +10503,7 @@
       <c r="H49" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="11" t="s">
         <v>138</v>
       </c>
       <c r="J49" s="5" t="s">
@@ -10522,7 +10519,7 @@
       <c r="H50" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="11" t="s">
         <v>242</v>
       </c>
       <c r="J50" s="5" t="s">
@@ -10535,17 +10532,17 @@
       <c r="O50" s="7"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
       <c r="H51" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="I51" s="11" t="s">
         <v>46</v>
       </c>
       <c r="J51" s="5" t="s">
@@ -10775,13 +10772,13 @@
       <c r="O60" s="7"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -11001,13 +10998,13 @@
       <c r="O69" s="7"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
@@ -11155,13 +11152,13 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
@@ -11309,13 +11306,13 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
@@ -11497,11 +11494,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -11644,11 +11641,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="G11">
         <f>(825/(825+238))*100</f>
         <v>77.610536218250232</v>
@@ -11799,11 +11796,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="G21">
         <f>512/(512+244)*100</f>
         <v>67.724867724867721</v>
@@ -11930,11 +11927,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
       <c r="G31" t="s">
         <v>174</v>
       </c>
@@ -12061,11 +12058,11 @@
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
@@ -12184,11 +12181,11 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="G51" t="s">
         <v>189</v>
       </c>
@@ -12303,11 +12300,11 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
       <c r="G61" t="s">
         <v>196</v>
       </c>
@@ -12433,11 +12430,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
       <c r="G71" t="s">
         <v>205</v>
       </c>
@@ -12546,11 +12543,11 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
@@ -12646,11 +12643,11 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
